--- a/TabelasCasoDeUsos.xlsx
+++ b/TabelasCasoDeUsos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>Nome do Caso de Uso</t>
   </si>
@@ -134,7 +134,28 @@
     <t>5. Sistema direciona para a tela Confirmar Pagamento</t>
   </si>
   <si>
-    <t>FALTA CONFIRMAR PAGAMENTO</t>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>A ação do provedor de confirmar o pagamento com os serviços do banco</t>
+  </si>
+  <si>
+    <t>Campos de dados preenchidos</t>
+  </si>
+  <si>
+    <t>1. Sistema requisita os dados do cliente</t>
+  </si>
+  <si>
+    <t>2. Banco verifica se as informaçoes estao corretas</t>
+  </si>
+  <si>
+    <t>3. Banco realiza operacao bancaria</t>
+  </si>
+  <si>
+    <t>4. Banco retorna situacao da Operacao</t>
+  </si>
+  <si>
+    <t>5. Sistema informa status da Compra ao Cliente</t>
   </si>
   <si>
     <t>Envio dos Produtos</t>
@@ -163,6 +184,57 @@
   </si>
   <si>
     <t>4. Sistema mostra codigo de rastreamento</t>
+  </si>
+  <si>
+    <t>Confirmar Entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provedor </t>
+  </si>
+  <si>
+    <t>A ação do cliente de confirmar se o produto foi entregue corretamente e se o produto é do seu agrado</t>
+  </si>
+  <si>
+    <t>Produto nas mãos do Cliente</t>
+  </si>
+  <si>
+    <t>1. Cliente recebe o produto</t>
+  </si>
+  <si>
+    <t>2. Cliente informa ao sistema sobre a entrega do produto</t>
+  </si>
+  <si>
+    <t>3. Sistema atualiza informações</t>
+  </si>
+  <si>
+    <t>SubFluxo</t>
+  </si>
+  <si>
+    <t>Se o Cliente quiser devolver o produto, direciona para Caso de Uso de Devolução do Produto, senao fecha o pedido</t>
+  </si>
+  <si>
+    <t>Devolução do Produto</t>
+  </si>
+  <si>
+    <t>Provedor, Transportadora</t>
+  </si>
+  <si>
+    <t>A ação do cliente de requisitar a devolução de um produto</t>
+  </si>
+  <si>
+    <t>Produto estar em boas condições</t>
+  </si>
+  <si>
+    <t>1. Cliente faz a devolução do produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Transportadora direciona o produto ao remetente </t>
+  </si>
+  <si>
+    <t>3. Sistema devolve o dinheiro</t>
+  </si>
+  <si>
+    <t>Se o Produto estiver em mas condiçoes, o produto é devolvido ao cliente sem direito de devolução</t>
   </si>
 </sst>
 </file>
@@ -170,12 +242,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,29 +257,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,22 +283,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,9 +302,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,22 +349,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,29 +401,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -343,13 +422,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,97 +578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,74 +606,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -650,6 +729,103 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -677,43 +853,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,181 +870,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +1062,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1258,16 +1450,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="46.75" customWidth="1"/>
+    <col min="1" max="1" width="26.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="46.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1333,7 +1525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="25.5" spans="1:2">
+    <row r="9" ht="27" spans="1:2">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1351,11 +1543,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:2">
+    <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="15" ht="13.5"/>
+    <row r="15" ht="14.25"/>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>0</v>
@@ -1383,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:2">
+    <row r="19" ht="27" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1435,11 +1627,11 @@
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" ht="13.5" spans="1:2">
+    <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="30" ht="13.5"/>
+    <row r="30" ht="14.25"/>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>0</v>
@@ -1467,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="27.75" spans="1:2">
+    <row r="34" ht="27" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -1527,12 +1719,13 @@
       </c>
       <c r="B42" s="13"/>
     </row>
-    <row r="43" ht="13.5" spans="1:2">
+    <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="46" ht="14.25"/>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>0</v>
@@ -1560,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="27.75" spans="1:2">
+    <row r="50" ht="27" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1797,7 @@
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" ht="25.5" spans="1:2">
+    <row r="56" ht="27" spans="1:2">
       <c r="A56" s="8" t="s">
         <v>35</v>
       </c>
@@ -1616,123 +1809,431 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" ht="25.5" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" ht="13.5" spans="1:2">
+    <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="10"/>
       <c r="B59" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>40</v>
+      <c r="B63" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="1:2">
+      <c r="A66" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" ht="27.75" spans="1:2">
-      <c r="A66" s="3" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:1">
+      <c r="A71" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="23"/>
+      <c r="B74" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" ht="27.75" spans="1:2">
+      <c r="A75" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="26"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79">
         <v>6</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
+      <c r="B83" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
+      <c r="B84" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" spans="1:2">
-      <c r="A72" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" ht="13.5" spans="1:2">
-      <c r="A75" s="10"/>
-      <c r="B75" s="11"/>
+    <row r="87" spans="1:2">
+      <c r="A87" s="8"/>
+      <c r="B87" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" ht="27" spans="1:2">
+      <c r="A88" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" ht="40.5" spans="1:2">
+      <c r="A89" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" ht="27" spans="1:2">
+      <c r="A98" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="17"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" s="17"/>
+    </row>
+    <row r="104" ht="27" spans="1:2">
+      <c r="A104" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="17"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="22"/>
+      <c r="B105" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="23"/>
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" ht="14.25" spans="1:2">
+      <c r="A107" s="27"/>
+      <c r="B107" s="24"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="29"/>
+    </row>
+    <row r="109" ht="30" customHeight="1" spans="1:2">
+      <c r="A109" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="31"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="32"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="32"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="32"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="32"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="32"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="32"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="32"/>
+    </row>
+    <row r="121" ht="27" spans="1:3">
+      <c r="A121" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" s="17"/>
+      <c r="C121" s="32"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="33"/>
+      <c r="B122" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="32"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="32"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="23"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="32"/>
+    </row>
+    <row r="125" ht="14.25" spans="1:3">
+      <c r="A125" s="36"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="32"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="29"/>
+    </row>
+    <row r="127" ht="14.25" spans="1:2">
+      <c r="A127" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
